--- a/basic_py/neuro.xlsx
+++ b/basic_py/neuro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CPO_V\OneDrive\Документы\GitHub\AI\basic_py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573F862C-4A0B-4FE3-A45E-7E6B07A5A686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37A1111-9958-4901-9D75-CD405C5031D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
   <si>
     <t>Ветер (умеренный)</t>
   </si>
@@ -164,12 +164,30 @@
   </si>
   <si>
     <t>Параметры</t>
+  </si>
+  <si>
+    <t>Активатор</t>
+  </si>
+  <si>
+    <t>Выход нейрона</t>
+  </si>
+  <si>
+    <t>onestep</t>
+  </si>
+  <si>
+    <t>sigmoid</t>
+  </si>
+  <si>
+    <t>Гиперболический тангенс (исп. биологи)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -202,7 +220,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -225,15 +243,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -249,8 +310,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -532,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:N29"/>
+  <dimension ref="B2:R29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,241 +640,295 @@
     <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="2:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="2:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+      <c r="C5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3" t="s">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3" t="s">
+      <c r="H5" s="2"/>
+      <c r="I5" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
-        <v>3</v>
-      </c>
-      <c r="C6" s="4">
+      <c r="P5" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>16.5</v>
+      </c>
+      <c r="C6" s="3">
         <f>IF(B6=0.5,13,IF(B6=1.5,12,IF(B6=3,11,IF(B6=5,10,IF(B6=8,9,IF(B6=11,8,IF(B6=14,7,IF(B6=16.5,6,IF(B6=20,5,IF(B6=23,4,IF(B6=28,3,IF(B6=32.5,2,IF(B6=32.6,1,0)))))))))))))</f>
-        <v>11</v>
-      </c>
-      <c r="D6" s="2">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1">
         <v>780</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <f>IF(D6&lt;=760,13,IF(D6=770,10,IF(D6=780,6,IF(D6=781,4,0))))</f>
         <v>6</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>8</v>
       </c>
-      <c r="G6" s="4">
-        <f>IF(F6=1,13,IF(F6=2,12,IF(F6=3,11,IF(F6=4,10,IF(F6=5,9,IF(F6=6,8,IF(F6=7,7,IF(F6=16.8,6,IF(F6=9,10,0)))))))))</f>
+      <c r="G6" s="3">
+        <f>IF(F6=1,13,IF(F6=2,12,IF(F6=3,11,IF(F6=4,10,IF(F6=5,9,IF(F6=6,8,IF(F6=7,7,IF(F6=8,6,IF(F6=9,10,0)))))))))</f>
+        <v>6</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2</v>
+      </c>
+      <c r="I6" s="3">
+        <f>IF(H6&lt;=2,13,IF(H6=5,10,IF(H6=10,3,IF(H6=20.1,1,0))))</f>
+        <v>13</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="O7" s="14">
+        <v>5</v>
+      </c>
+      <c r="P7" s="14">
+        <f>IF(N12&gt;=O7,1,0)</f>
         <v>0</v>
       </c>
-      <c r="H6" s="2">
+      <c r="Q7" s="9">
+        <f>1/(1+POWER(2.71828,(-1*N12)))</f>
+        <v>0.73105844637843298</v>
+      </c>
+      <c r="R7" s="14">
+        <f>TANH(N12)</f>
+        <v>0.76159415595576485</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="K8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" s="6">
+        <f>ROUND(C6/13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="5">
         <v>5</v>
       </c>
-      <c r="I6" s="4">
-        <f>IF(H6&lt;=5,13,IF(H6=10,7,IF(H6=20,2,IF(H6=20.1,1,0))))</f>
-        <v>13</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="K8" s="3" t="s">
+      <c r="N8" s="5">
+        <f>L8*M8</f>
         <v>0</v>
       </c>
-      <c r="L8" s="7">
-        <f>ROUND(C6/13,0)</f>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="15"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="K9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="M8" s="6">
-        <v>5</v>
-      </c>
-      <c r="N8" s="6">
-        <f>L8*M8</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="K9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="L9" s="7">
+      <c r="L9" s="6">
         <f>ROUND(E6/13,0)</f>
         <v>0</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="5">
         <v>4</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9" s="5">
         <f t="shared" ref="N9:N11" si="0">L9*M9</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="K10" s="3" t="s">
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="15"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="K10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="6">
         <f>ROUND(G6/13,0)</f>
         <v>0</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="5">
         <v>1</v>
       </c>
-      <c r="N10" s="6">
+      <c r="N10" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="K11" s="3" t="s">
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="15"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="K11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="6">
         <f>ROUND(I6/13,0)</f>
         <v>1</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="5">
         <v>1</v>
       </c>
-      <c r="N11" s="6">
+      <c r="N11" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="N12" s="8">
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="15"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="N12" s="7">
         <f>SUM(N8:N11)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="16"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>18</v>
       </c>
@@ -816,13 +959,13 @@
         <v>19</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H17" t="s">
         <v>32</v>
       </c>
       <c r="I17">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -842,13 +985,13 @@
         <v>23</v>
       </c>
       <c r="G18">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H18" t="s">
         <v>33</v>
       </c>
       <c r="I18">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -868,13 +1011,13 @@
         <v>20</v>
       </c>
       <c r="G19">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H19" t="s">
         <v>34</v>
       </c>
       <c r="I19">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -894,7 +1037,7 @@
         <v>21</v>
       </c>
       <c r="G20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H20" t="s">
         <v>35</v>
@@ -914,7 +1057,7 @@
         <v>22</v>
       </c>
       <c r="G21">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
@@ -928,7 +1071,7 @@
         <v>24</v>
       </c>
       <c r="G22">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
@@ -942,7 +1085,7 @@
         <v>25</v>
       </c>
       <c r="G23">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
@@ -970,7 +1113,7 @@
         <v>27</v>
       </c>
       <c r="G25">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
@@ -1006,9 +1149,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="7">
+    <mergeCell ref="Q7:Q12"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="K6:K7"/>
+    <mergeCell ref="O7:O12"/>
+    <mergeCell ref="P7:P12"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="R7:R12"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{AAC1DC8D-7C9F-4671-8B1A-A23E32EE9BEB}">
